--- a/conferenciaSis2/src/ReporteExcel/ReporteAsistencia.xlsx
+++ b/conferenciaSis2/src/ReporteExcel/ReporteAsistencia.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>Reporte Asistencia tema "algo algo"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Reporte de Asistentes tema: ""</t>
   </si>
   <si>
     <t>CI</t>
@@ -27,15 +27,6 @@
   </si>
   <si>
     <t>Id Grupo</t>
-  </si>
-  <si>
-    <t>Asistido</t>
-  </si>
-  <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -176,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="120"/>
   </sheetViews>
@@ -186,7 +177,6 @@
     <col min="2" max="2" width="31.50390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="32.1796875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.46875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -194,38 +184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
